--- a/book.xlsx
+++ b/book.xlsx
@@ -12,7 +12,7 @@
     <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9408"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="First sheet" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="152511"/>
   <extLst>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="35">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="36">
   <si>
     <t>a</t>
   </si>
@@ -129,13 +129,16 @@
   </si>
   <si>
     <t>HEAD J</t>
+  </si>
+  <si>
+    <t>LOWER A</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -147,6 +150,14 @@
       <b/>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -172,9 +183,10 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -455,10 +467,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J6"/>
+  <dimension ref="A1:M26"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
+      <selection activeCell="L18" sqref="L18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -655,6 +667,79 @@
         <v>24</v>
       </c>
     </row>
+    <row r="21" spans="11:13" x14ac:dyDescent="0.3">
+      <c r="K21" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="L21" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="M21" s="2" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="22" spans="11:13" x14ac:dyDescent="0.3">
+      <c r="K22">
+        <v>1</v>
+      </c>
+      <c r="L22">
+        <v>1</v>
+      </c>
+      <c r="M22">
+        <f>SUM(K22:L22)</f>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="23" spans="11:13" x14ac:dyDescent="0.3">
+      <c r="K23">
+        <v>2</v>
+      </c>
+      <c r="L23">
+        <v>1</v>
+      </c>
+      <c r="M23">
+        <f t="shared" ref="M23:M25" si="0">SUM(K23:L23)</f>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="24" spans="11:13" x14ac:dyDescent="0.3">
+      <c r="K24">
+        <v>3</v>
+      </c>
+      <c r="L24">
+        <v>1</v>
+      </c>
+      <c r="M24">
+        <f t="shared" si="0"/>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="25" spans="11:13" x14ac:dyDescent="0.3">
+      <c r="K25">
+        <v>4</v>
+      </c>
+      <c r="L25">
+        <v>1</v>
+      </c>
+      <c r="M25">
+        <f t="shared" si="0"/>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="26" spans="11:13" x14ac:dyDescent="0.3">
+      <c r="K26" s="1">
+        <f>SUM(K22:K25)</f>
+        <v>10</v>
+      </c>
+      <c r="L26" s="1">
+        <f t="shared" ref="L26:M26" si="1">SUM(L22:L25)</f>
+        <v>4</v>
+      </c>
+      <c r="M26" s="1">
+        <f>SUM(M22:M25)</f>
+        <v>14</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
